--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>797.2642435338339</v>
+        <v>930.5457240125119</v>
       </c>
       <c r="R2">
-        <v>3189.056974135336</v>
+        <v>3722.182896050047</v>
       </c>
       <c r="S2">
-        <v>0.001722816993486083</v>
+        <v>0.0006088117668652606</v>
       </c>
       <c r="T2">
-        <v>0.0008369650478382141</v>
+        <v>0.0002843149011782682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>4704.713951544437</v>
+        <v>3123.435574345647</v>
       </c>
       <c r="R3">
-        <v>28228.28370926662</v>
+        <v>18740.61344607388</v>
       </c>
       <c r="S3">
-        <v>0.0101664676560499</v>
+        <v>0.002043515199347276</v>
       </c>
       <c r="T3">
-        <v>0.007408486902785069</v>
+        <v>0.001431481420645639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>9772.245543073446</v>
+        <v>9905.52090632402</v>
       </c>
       <c r="R4">
-        <v>58633.47325844067</v>
+        <v>59433.12543794412</v>
       </c>
       <c r="S4">
-        <v>0.02111695190480607</v>
+        <v>0.006480710758302103</v>
       </c>
       <c r="T4">
-        <v>0.01538830072610326</v>
+        <v>0.004539734789372236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>3598.65487463668</v>
+        <v>3276.541455537098</v>
       </c>
       <c r="R5">
-        <v>14394.61949854672</v>
+        <v>13106.16582214839</v>
       </c>
       <c r="S5">
-        <v>0.007776372541474067</v>
+        <v>0.00214368508852123</v>
       </c>
       <c r="T5">
-        <v>0.003777854549143206</v>
+        <v>0.00100110025343043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>738.2991666097596</v>
+        <v>18181.27034295673</v>
       </c>
       <c r="R6">
-        <v>4429.794999658558</v>
+        <v>109087.6220577404</v>
       </c>
       <c r="S6">
-        <v>0.001595398716081926</v>
+        <v>0.01189513963228057</v>
       </c>
       <c r="T6">
-        <v>0.001162595592952039</v>
+        <v>0.008332539628300334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>6155.140700457857</v>
+        <v>5109.631429914163</v>
       </c>
       <c r="R7">
-        <v>36930.84420274714</v>
+        <v>30657.78857948498</v>
       </c>
       <c r="S7">
-        <v>0.01330071062643437</v>
+        <v>0.003342988591106011</v>
       </c>
       <c r="T7">
-        <v>0.00969246584038801</v>
+        <v>0.002341761910617116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>6857.8677693407</v>
+        <v>12056.60988827605</v>
       </c>
       <c r="R8">
-        <v>41147.2066160442</v>
+        <v>72339.65932965631</v>
       </c>
       <c r="S8">
-        <v>0.01481924120882672</v>
+        <v>0.007888065872610277</v>
       </c>
       <c r="T8">
-        <v>0.01079904624881902</v>
+        <v>0.005525586374438136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
         <v>40468.77360165332</v>
       </c>
       <c r="R9">
-        <v>364218.9624148798</v>
+        <v>364218.9624148799</v>
       </c>
       <c r="S9">
-        <v>0.08744941395770819</v>
+        <v>0.02647679197649132</v>
       </c>
       <c r="T9">
-        <v>0.09558892919553653</v>
+        <v>0.0278204701913298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>84058.41386649704</v>
+        <v>128340.8200434711</v>
       </c>
       <c r="R10">
-        <v>756525.7247984733</v>
+        <v>1155067.38039124</v>
       </c>
       <c r="S10">
-        <v>0.1816427427032122</v>
+        <v>0.08396728865152632</v>
       </c>
       <c r="T10">
-        <v>0.1985494754663242</v>
+        <v>0.08822856836472899</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>30954.72985012198</v>
+        <v>42452.48899950222</v>
       </c>
       <c r="R11">
-        <v>185728.3791007319</v>
+        <v>254714.9339970133</v>
       </c>
       <c r="S11">
-        <v>0.06689041311846801</v>
+        <v>0.0277746425228509</v>
       </c>
       <c r="T11">
-        <v>0.0487442409965427</v>
+        <v>0.01945612381509804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>6350.664914284849</v>
+        <v>235565.5161716318</v>
       </c>
       <c r="R12">
-        <v>57155.98422856364</v>
+        <v>2120089.645544686</v>
       </c>
       <c r="S12">
-        <v>0.01372322103117304</v>
+        <v>0.1541193026975319</v>
       </c>
       <c r="T12">
-        <v>0.01500053509927348</v>
+        <v>0.1619407468401849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>52944.98200286559</v>
+        <v>66202.90785681036</v>
       </c>
       <c r="R13">
-        <v>476504.8380257902</v>
+        <v>595826.1707112931</v>
       </c>
       <c r="S13">
-        <v>0.1144093886740083</v>
+        <v>0.04331341089842118</v>
       </c>
       <c r="T13">
-        <v>0.1250582532039991</v>
+        <v>0.04551153545543817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>4772.213552924725</v>
+        <v>13216.21393055424</v>
       </c>
       <c r="R14">
-        <v>28633.28131754835</v>
+        <v>79297.28358332544</v>
       </c>
       <c r="S14">
-        <v>0.01031232828037196</v>
+        <v>0.008646739592370433</v>
       </c>
       <c r="T14">
-        <v>0.007514778149802313</v>
+        <v>0.00605703695259663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>28161.17725620991</v>
+        <v>44361.05790788694</v>
       </c>
       <c r="R15">
-        <v>253450.5953058892</v>
+        <v>399249.5211709825</v>
       </c>
       <c r="S15">
-        <v>0.06085379487047481</v>
+        <v>0.02902332829864216</v>
       </c>
       <c r="T15">
-        <v>0.06651787388725879</v>
+        <v>0.03049624140652989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>58494.08524387719</v>
+        <v>140684.6326981731</v>
       </c>
       <c r="R16">
-        <v>526446.7671948947</v>
+        <v>1266161.694283558</v>
       </c>
       <c r="S16">
-        <v>0.1264005063489324</v>
+        <v>0.09204325762138835</v>
       </c>
       <c r="T16">
-        <v>0.1381654662375591</v>
+        <v>0.09671438697113878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>21540.59924839837</v>
+        <v>46535.56693805796</v>
       </c>
       <c r="R17">
-        <v>129243.5954903902</v>
+        <v>279213.4016283478</v>
       </c>
       <c r="S17">
-        <v>0.04654731569363221</v>
+        <v>0.03044600603554516</v>
       </c>
       <c r="T17">
-        <v>0.03391986187757794</v>
+        <v>0.02132741267922489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>4419.264149350508</v>
+        <v>258222.1939032052</v>
       </c>
       <c r="R18">
-        <v>39773.37734415457</v>
+        <v>2323999.745128847</v>
       </c>
       <c r="S18">
-        <v>0.00954963606728184</v>
+        <v>0.16894248832411</v>
       </c>
       <c r="T18">
-        <v>0.01043848602942049</v>
+        <v>0.1775161985123861</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>36843.04935172605</v>
+        <v>72570.2997084766</v>
       </c>
       <c r="R19">
-        <v>331587.4441655344</v>
+        <v>653132.6973762894</v>
       </c>
       <c r="S19">
-        <v>0.07961454690813104</v>
+        <v>0.04747929225546051</v>
       </c>
       <c r="T19">
-        <v>0.08702481746780484</v>
+        <v>0.04988883230533728</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>490.9113507904574</v>
+        <v>563.022897367744</v>
       </c>
       <c r="R20">
-        <v>1963.64540316183</v>
+        <v>2252.091589470976</v>
       </c>
       <c r="S20">
-        <v>0.00106081568852036</v>
+        <v>0.0003683590779978112</v>
       </c>
       <c r="T20">
-        <v>0.0005153569165192607</v>
+        <v>0.0001720235720776468</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>2896.903378982876</v>
+        <v>1889.821962994614</v>
       </c>
       <c r="R21">
-        <v>17381.42027389726</v>
+        <v>11338.93177796769</v>
       </c>
       <c r="S21">
-        <v>0.006259950085905432</v>
+        <v>0.001236420541905641</v>
       </c>
       <c r="T21">
-        <v>0.004561737645023697</v>
+        <v>0.000866111998779294</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>6017.209850704445</v>
+        <v>5993.29504902472</v>
       </c>
       <c r="R22">
-        <v>36103.25910422667</v>
+        <v>35959.77029414832</v>
       </c>
       <c r="S22">
-        <v>0.0130026543498505</v>
+        <v>0.003921127628643532</v>
       </c>
       <c r="T22">
-        <v>0.009475266898132932</v>
+        <v>0.002746748030147452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>2215.853200321765</v>
+        <v>1982.458052343076</v>
       </c>
       <c r="R23">
-        <v>8863.412801287061</v>
+        <v>7929.832209372305</v>
       </c>
       <c r="S23">
-        <v>0.004788261331856471</v>
+        <v>0.001297027925053389</v>
       </c>
       <c r="T23">
-        <v>0.00232619447673883</v>
+        <v>0.0006057116278086355</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>454.6039084373976</v>
+        <v>11000.50351333418</v>
       </c>
       <c r="R24">
-        <v>2727.623450624386</v>
+        <v>66003.02108000507</v>
       </c>
       <c r="S24">
-        <v>0.0009823585406133954</v>
+        <v>0.007197105749389741</v>
       </c>
       <c r="T24">
-        <v>0.0007158622471633496</v>
+        <v>0.005041569138298591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>3789.996177646036</v>
+        <v>3091.561669583127</v>
       </c>
       <c r="R25">
-        <v>22739.97706587622</v>
+        <v>18549.37001749876</v>
       </c>
       <c r="S25">
-        <v>0.008189844048636047</v>
+        <v>0.002022661620877548</v>
       </c>
       <c r="T25">
-        <v>0.005968085909766906</v>
+        <v>0.001416873498892511</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>446.8692398034225</v>
+        <v>1496.942187377802</v>
       </c>
       <c r="R26">
-        <v>2681.215438820535</v>
+        <v>8981.653124266815</v>
       </c>
       <c r="S26">
-        <v>0.0009656446108596517</v>
+        <v>0.0009793780084903965</v>
       </c>
       <c r="T26">
-        <v>0.0007036825074677246</v>
+        <v>0.0006860538269501166</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>2637.007697348211</v>
+        <v>5024.581124969791</v>
       </c>
       <c r="R27">
-        <v>23733.06927613389</v>
+        <v>45221.23012472812</v>
       </c>
       <c r="S27">
-        <v>0.005698338674776282</v>
+        <v>0.003287344225558514</v>
       </c>
       <c r="T27">
-        <v>0.006228722040136272</v>
+        <v>0.003454174588711271</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>5477.375879356483</v>
+        <v>15934.72706391143</v>
       </c>
       <c r="R28">
-        <v>49296.38291420834</v>
+        <v>143412.5435752029</v>
       </c>
       <c r="S28">
-        <v>0.01183612123734439</v>
+        <v>0.01042533331566324</v>
       </c>
       <c r="T28">
-        <v>0.0129377900171345</v>
+        <v>0.01095441150878891</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>2017.057934287666</v>
+        <v>5270.87815989986</v>
       </c>
       <c r="R29">
-        <v>12102.347605726</v>
+        <v>31625.26895939916</v>
       </c>
       <c r="S29">
-        <v>0.004358682474751238</v>
+        <v>0.003448484650085825</v>
       </c>
       <c r="T29">
-        <v>0.003176249914922748</v>
+        <v>0.00241566184952101</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>413.8191195782663</v>
+        <v>29247.68756030184</v>
       </c>
       <c r="R30">
-        <v>3724.372076204397</v>
+        <v>263229.1880427165</v>
       </c>
       <c r="S30">
-        <v>0.0008942262458414533</v>
+        <v>0.01913536958026046</v>
       </c>
       <c r="T30">
-        <v>0.0009774580003459785</v>
+        <v>0.02010647587065653</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>3449.976677124091</v>
+        <v>8219.717368006768</v>
       </c>
       <c r="R31">
-        <v>31049.79009411682</v>
+        <v>73977.45631206091</v>
       </c>
       <c r="S31">
-        <v>0.007455092203978663</v>
+        <v>0.005377769758987129</v>
       </c>
       <c r="T31">
-        <v>0.008148988639042776</v>
+        <v>0.005650687719591425</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>953.885952638295</v>
+        <v>6831.930389524373</v>
       </c>
       <c r="R32">
-        <v>5723.31571582977</v>
+        <v>40991.58233714623</v>
       </c>
       <c r="S32">
-        <v>0.002061262551759196</v>
+        <v>0.004469806807140706</v>
       </c>
       <c r="T32">
-        <v>0.00150207890631727</v>
+        <v>0.003131097532497466</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>5628.949982339442</v>
+        <v>22931.80643298149</v>
       </c>
       <c r="R33">
-        <v>50660.54984105497</v>
+        <v>206386.2578968334</v>
       </c>
       <c r="S33">
-        <v>0.0121636593685341</v>
+        <v>0.01500318923789703</v>
       </c>
       <c r="T33">
-        <v>0.01329581436302976</v>
+        <v>0.015764590337772</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>11691.99274252208</v>
+        <v>72724.88342880629</v>
       </c>
       <c r="R34">
-        <v>105227.9346826988</v>
+        <v>654523.9508592566</v>
       </c>
       <c r="S34">
-        <v>0.02526535455202334</v>
+        <v>0.04758042902442735</v>
       </c>
       <c r="T34">
-        <v>0.02761697395183756</v>
+        <v>0.04999510169283661</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>4305.606781126863</v>
+        <v>24055.88738412099</v>
       </c>
       <c r="R35">
-        <v>25833.64068676118</v>
+        <v>144335.3243047259</v>
       </c>
       <c r="S35">
-        <v>0.009304032621499949</v>
+        <v>0.01573862189026782</v>
       </c>
       <c r="T35">
-        <v>0.006780015060437339</v>
+        <v>0.01102489711340603</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>883.3372493315926</v>
+        <v>133484.223473294</v>
       </c>
       <c r="R36">
-        <v>7950.035243984335</v>
+        <v>1201358.011259646</v>
       </c>
       <c r="S36">
-        <v>0.001908813089851229</v>
+        <v>0.08733237265439384</v>
       </c>
       <c r="T36">
-        <v>0.002086479383172808</v>
+        <v>0.09176442796872558</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>7364.311516912801</v>
+        <v>37514.16544559832</v>
       </c>
       <c r="R37">
-        <v>66278.80365221521</v>
+        <v>337627.4890103849</v>
       </c>
       <c r="S37">
-        <v>0.01591362102284501</v>
+        <v>0.02454373251958905</v>
       </c>
       <c r="T37">
-        <v>0.01739481060368217</v>
+        <v>0.02578930935256324</v>
       </c>
     </row>
   </sheetData>
